--- a/results/mp/tinybert/toy-spam/confidence/168/stop-words-topk-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/168/stop-words-topk-0.5/avg_0.002_scores.xlsx
@@ -49,367 +49,376 @@
     <t>disappointed</t>
   </si>
   <si>
+    <t>broke</t>
+  </si>
+  <si>
+    <t>however</t>
+  </si>
+  <si>
     <t>poor</t>
   </si>
   <si>
-    <t>however</t>
-  </si>
-  <si>
-    <t>broke</t>
-  </si>
-  <si>
     <t>waste</t>
   </si>
   <si>
+    <t>instead</t>
+  </si>
+  <si>
+    <t>junk</t>
+  </si>
+  <si>
     <t>returned</t>
   </si>
   <si>
-    <t>junk</t>
-  </si>
-  <si>
     <t>broken</t>
   </si>
   <si>
-    <t>instead</t>
+    <t>probably</t>
+  </si>
+  <si>
+    <t>ripped</t>
   </si>
   <si>
     <t>smaller</t>
   </si>
   <si>
+    <t>water</t>
+  </si>
+  <si>
     <t>small</t>
   </si>
   <si>
+    <t>apart</t>
+  </si>
+  <si>
+    <t>plastic</t>
+  </si>
+  <si>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>thin</t>
+  </si>
+  <si>
+    <t>paint</t>
+  </si>
+  <si>
+    <t>tiny</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>cheap</t>
+  </si>
+  <si>
+    <t>missing</t>
+  </si>
+  <si>
+    <t>paid</t>
+  </si>
+  <si>
+    <t>thought</t>
+  </si>
+  <si>
     <t>guess</t>
   </si>
   <si>
-    <t>apart</t>
-  </si>
-  <si>
-    <t>thin</t>
-  </si>
-  <si>
-    <t>tiny</t>
-  </si>
-  <si>
-    <t>okay</t>
-  </si>
-  <si>
-    <t>missing</t>
-  </si>
-  <si>
-    <t>probably</t>
-  </si>
-  <si>
-    <t>plastic</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>water</t>
-  </si>
-  <si>
-    <t>thought</t>
+    <t>description</t>
+  </si>
+  <si>
+    <t>fell</t>
+  </si>
+  <si>
+    <t>half</t>
+  </si>
+  <si>
+    <t>short</t>
+  </si>
+  <si>
+    <t>less</t>
   </si>
   <si>
     <t>tried</t>
   </si>
   <si>
-    <t>cheap</t>
-  </si>
-  <si>
-    <t>less</t>
-  </si>
-  <si>
     <t>bad</t>
   </si>
   <si>
-    <t>fell</t>
-  </si>
-  <si>
-    <t>paint</t>
+    <t>lasted</t>
+  </si>
+  <si>
+    <t>pay</t>
+  </si>
+  <si>
+    <t>un</t>
   </si>
   <si>
     <t>di</t>
   </si>
   <si>
+    <t>difficult</t>
+  </si>
+  <si>
     <t>sound</t>
   </si>
   <si>
-    <t>pay</t>
-  </si>
-  <si>
-    <t>un</t>
-  </si>
-  <si>
-    <t>short</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>half</t>
-  </si>
-  <si>
-    <t>fl</t>
+    <t>though</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>looked</t>
+  </si>
+  <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>picture</t>
   </si>
   <si>
     <t>bit</t>
   </si>
   <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
+    <t>light</t>
+  </si>
+  <si>
     <t>nothing</t>
   </si>
   <si>
-    <t>size</t>
-  </si>
-  <si>
-    <t>light</t>
-  </si>
-  <si>
-    <t>though</t>
-  </si>
-  <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>work</t>
+    <t>parts</t>
   </si>
   <si>
     <t>used</t>
   </si>
   <si>
-    <t>would</t>
-  </si>
-  <si>
-    <t>actually</t>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>seems</t>
+  </si>
+  <si>
+    <t>minutes</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>fit</t>
+  </si>
+  <si>
+    <t>hold</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>pieces</t>
+  </si>
+  <si>
+    <t>ordered</t>
+  </si>
+  <si>
+    <t>could</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>need</t>
+  </si>
+  <si>
+    <t>put</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>back</t>
+  </si>
+  <si>
+    <t>worked</t>
+  </si>
+  <si>
+    <t>box</t>
+  </si>
+  <si>
+    <t>expected</t>
+  </si>
+  <si>
+    <t>looks</t>
+  </si>
+  <si>
+    <t>little</t>
+  </si>
+  <si>
+    <t>way</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>5</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>parts</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>worked</t>
-  </si>
-  <si>
-    <t>picture</t>
-  </si>
-  <si>
-    <t>seems</t>
-  </si>
-  <si>
-    <t>piece</t>
-  </si>
-  <si>
-    <t>back</t>
-  </si>
-  <si>
-    <t>fit</t>
-  </si>
-  <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>minutes</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>away</t>
-  </si>
-  <si>
-    <t>pieces</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>use</t>
-  </si>
-  <si>
-    <t>could</t>
-  </si>
-  <si>
-    <t>box</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>need</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>expected</t>
-  </si>
-  <si>
-    <t>put</t>
-  </si>
-  <si>
-    <t>way</t>
-  </si>
-  <si>
-    <t>looks</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>5</t>
+    <t>right</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>think</t>
+  </si>
+  <si>
+    <t>enough</t>
+  </si>
+  <si>
+    <t>even</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>know</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>still</t>
+  </si>
+  <si>
+    <t>two</t>
   </si>
   <si>
     <t>first</t>
   </si>
   <si>
-    <t>even</t>
-  </si>
-  <si>
-    <t>never</t>
-  </si>
-  <si>
-    <t>think</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>two</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>much</t>
+    <t>one</t>
   </si>
   <si>
     <t>get</t>
   </si>
   <si>
-    <t>still</t>
-  </si>
-  <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>worth</t>
+    <t>toy</t>
+  </si>
+  <si>
+    <t>got</t>
   </si>
   <si>
     <t>quality</t>
   </si>
   <si>
-    <t>toy</t>
-  </si>
-  <si>
     <t>time</t>
   </si>
   <si>
+    <t>really</t>
+  </si>
+  <si>
     <t>bought</t>
   </si>
   <si>
-    <t>really</t>
-  </si>
-  <si>
-    <t>got</t>
-  </si>
-  <si>
-    <t>old</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>awesome</t>
+  </si>
+  <si>
     <t>wonderful</t>
   </si>
   <si>
-    <t>awesome</t>
+    <t>enjoyable</t>
+  </si>
+  <si>
+    <t>excellent</t>
   </si>
   <si>
     <t>favorite</t>
   </si>
   <si>
-    <t>fantastic</t>
-  </si>
-  <si>
-    <t>enjoyable</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
     <t>classic</t>
   </si>
   <si>
-    <t>excellent</t>
-  </si>
-  <si>
     <t>thank</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>loves</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
     <t>pleased</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>perfect</t>
   </si>
   <si>
+    <t>loved</t>
+  </si>
+  <si>
     <t>friends</t>
   </si>
   <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>learn</t>
   </si>
   <si>
-    <t>highly</t>
-  </si>
-  <si>
     <t>happy</t>
   </si>
   <si>
+    <t>lego</t>
+  </si>
+  <si>
+    <t>christmas</t>
+  </si>
+  <si>
     <t>enjoy</t>
   </si>
   <si>
-    <t>christmas</t>
+    <t>enjoyed</t>
   </si>
   <si>
     <t>fun</t>
@@ -418,12 +427,6 @@
     <t>birthday</t>
   </si>
   <si>
-    <t>every</t>
-  </si>
-  <si>
-    <t>enjoyed</t>
-  </si>
-  <si>
     <t>family</t>
   </si>
   <si>
@@ -433,34 +436,31 @@
     <t>game</t>
   </si>
   <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>playing</t>
+  </si>
+  <si>
     <t>cute</t>
   </si>
   <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>children</t>
-  </si>
-  <si>
-    <t>playing</t>
+    <t>grandson</t>
   </si>
   <si>
     <t>play</t>
   </si>
   <si>
-    <t>grandson</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
     <t>son</t>
   </si>
   <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
     <t>kids</t>
-  </si>
-  <si>
-    <t>good</t>
   </si>
   <si>
     <t>positive</t>
@@ -821,7 +821,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q103"/>
+  <dimension ref="A1:Q106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -829,7 +829,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="J1" t="s">
         <v>149</v>
@@ -890,13 +890,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9565217391304348</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D3">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -908,19 +908,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="K3">
-        <v>0.8571428571428571</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="L3">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="M3">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -932,7 +932,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -961,16 +961,16 @@
         <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="K4">
-        <v>0.8307692307692308</v>
+        <v>0.8153846153846154</v>
       </c>
       <c r="L4">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M4">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -982,7 +982,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -990,13 +990,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8064516129032258</v>
+        <v>0.8118279569892473</v>
       </c>
       <c r="C5">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D5">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1008,19 +1008,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K5">
-        <v>0.7741935483870968</v>
+        <v>0.8035714285714286</v>
       </c>
       <c r="L5">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="M5">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -1032,7 +1032,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1040,13 +1040,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7887323943661971</v>
+        <v>0.8106796116504854</v>
       </c>
       <c r="C6">
-        <v>56</v>
+        <v>167</v>
       </c>
       <c r="D6">
-        <v>56</v>
+        <v>167</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1058,19 +1058,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="K6">
-        <v>0.75</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L6">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M6">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1082,7 +1082,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1090,13 +1090,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.765625</v>
+        <v>0.75</v>
       </c>
       <c r="C7">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D7">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1108,19 +1108,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="K7">
-        <v>0.75</v>
+        <v>0.6875</v>
       </c>
       <c r="L7">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="M7">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1132,7 +1132,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1140,13 +1140,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7524271844660194</v>
+        <v>0.7464788732394366</v>
       </c>
       <c r="C8">
-        <v>155</v>
+        <v>53</v>
       </c>
       <c r="D8">
-        <v>155</v>
+        <v>53</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1158,19 +1158,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="K8">
-        <v>0.7037037037037037</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L8">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="M8">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1182,7 +1182,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>8</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1190,13 +1190,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7432432432432432</v>
+        <v>0.722972972972973</v>
       </c>
       <c r="C9">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D9">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1208,19 +1208,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K9">
-        <v>0.660377358490566</v>
+        <v>0.6226415094339622</v>
       </c>
       <c r="L9">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M9">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1232,7 +1232,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1240,13 +1240,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7105263157894737</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="C10">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D10">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1258,19 +1258,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="K10">
-        <v>0.609375</v>
+        <v>0.463768115942029</v>
       </c>
       <c r="L10">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="M10">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1282,7 +1282,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>25</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1290,13 +1290,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7090909090909091</v>
+        <v>0.6909090909090909</v>
       </c>
       <c r="C11">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D11">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1308,19 +1308,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="K11">
-        <v>0.4782608695652174</v>
+        <v>0.4446267432321575</v>
       </c>
       <c r="L11">
-        <v>33</v>
+        <v>542</v>
       </c>
       <c r="M11">
-        <v>33</v>
+        <v>543</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1329,10 +1329,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11">
-        <v>36</v>
+        <v>677</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1340,13 +1340,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6265060240963856</v>
+        <v>0.6578947368421053</v>
       </c>
       <c r="C12">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="D12">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1358,19 +1358,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="K12">
-        <v>0.4557377049180328</v>
+        <v>0.4137931034482759</v>
       </c>
       <c r="L12">
-        <v>556</v>
+        <v>288</v>
       </c>
       <c r="M12">
-        <v>556</v>
+        <v>289</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1379,10 +1379,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12">
-        <v>664</v>
+        <v>408</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1390,37 +1390,37 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.625</v>
+        <v>0.6385542168674698</v>
       </c>
       <c r="C13">
+        <v>53</v>
+      </c>
+      <c r="D13">
+        <v>53</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13">
         <v>30</v>
       </c>
-      <c r="D13">
-        <v>30</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>18</v>
-      </c>
       <c r="J13" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="K13">
-        <v>0.4211618257261411</v>
+        <v>0.3630705394190871</v>
       </c>
       <c r="L13">
-        <v>203</v>
+        <v>175</v>
       </c>
       <c r="M13">
-        <v>203</v>
+        <v>175</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>279</v>
+        <v>307</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1440,13 +1440,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6134453781512605</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="C14">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="D14">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="K14">
-        <v>0.4051724137931034</v>
+        <v>0.3207547169811321</v>
       </c>
       <c r="L14">
-        <v>282</v>
+        <v>17</v>
       </c>
       <c r="M14">
-        <v>283</v>
+        <v>17</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1479,10 +1479,10 @@
         <v>0</v>
       </c>
       <c r="P14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>414</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1490,13 +1490,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5739130434782609</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="C15">
-        <v>198</v>
+        <v>17</v>
       </c>
       <c r="D15">
-        <v>198</v>
+        <v>17</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1508,19 +1508,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>147</v>
+        <v>10</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="K15">
-        <v>0.3773584905660378</v>
+        <v>0.3166666666666667</v>
       </c>
       <c r="L15">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="M15">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>33</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1540,13 +1540,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5370370370370371</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C16">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="D16">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1558,19 +1558,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="K16">
-        <v>0.3493975903614458</v>
+        <v>0.2891566265060241</v>
       </c>
       <c r="L16">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="M16">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1582,7 +1582,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>108</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1590,13 +1590,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5263157894736842</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C17">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D17">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1608,19 +1608,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="K17">
-        <v>0.2962962962962963</v>
+        <v>0.2874617737003058</v>
       </c>
       <c r="L17">
-        <v>56</v>
+        <v>94</v>
       </c>
       <c r="M17">
-        <v>56</v>
+        <v>94</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1632,7 +1632,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>133</v>
+        <v>233</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1640,13 +1640,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5172413793103449</v>
+        <v>0.5681159420289855</v>
       </c>
       <c r="C18">
-        <v>15</v>
+        <v>196</v>
       </c>
       <c r="D18">
-        <v>15</v>
+        <v>196</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1658,19 +1658,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>14</v>
+        <v>149</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="K18">
-        <v>0.290519877675841</v>
+        <v>0.2698412698412698</v>
       </c>
       <c r="L18">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="M18">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1682,7 +1682,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>232</v>
+        <v>138</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1690,13 +1690,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5142857142857142</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="C19">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="D19">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1708,19 +1708,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="K19">
-        <v>0.275</v>
+        <v>0.2265625</v>
       </c>
       <c r="L19">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="M19">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1732,7 +1732,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>87</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1740,13 +1740,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5</v>
+        <v>0.5196850393700787</v>
       </c>
       <c r="C20">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="D20">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1758,19 +1758,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="K20">
-        <v>0.2109375</v>
+        <v>0.2167832167832168</v>
       </c>
       <c r="L20">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M20">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1782,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>101</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1790,13 +1790,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4888888888888889</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="C21">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D21">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1808,31 +1808,31 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="K21">
-        <v>0.2105263157894737</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="L21">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M21">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N21">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O21">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1840,13 +1840,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4736842105263158</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="C22">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D22">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1858,19 +1858,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="K22">
-        <v>0.1958041958041958</v>
+        <v>0.1967871485943775</v>
       </c>
       <c r="L22">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="M22">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1882,7 +1882,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>115</v>
+        <v>200</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1890,13 +1890,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4645669291338583</v>
+        <v>0.492063492063492</v>
       </c>
       <c r="C23">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="D23">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1908,31 +1908,31 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="K23">
-        <v>0.1837837837837838</v>
+        <v>0.1827956989247312</v>
       </c>
       <c r="L23">
         <v>34</v>
       </c>
       <c r="M23">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N23">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O23">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1940,13 +1940,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4375</v>
+        <v>0.4571428571428571</v>
       </c>
       <c r="C24">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="D24">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1958,19 +1958,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>72</v>
+        <v>19</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K24">
-        <v>0.1686746987951807</v>
+        <v>0.1746031746031746</v>
       </c>
       <c r="L24">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="M24">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1982,7 +1982,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>207</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1990,13 +1990,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.4285714285714285</v>
+        <v>0.4453125</v>
       </c>
       <c r="C25">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="D25">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -2008,19 +2008,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="K25">
-        <v>0.1676909569798068</v>
+        <v>0.1720807726075505</v>
       </c>
       <c r="L25">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="M25">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="N25">
         <v>0.99</v>
@@ -2032,7 +2032,7 @@
         <v>1</v>
       </c>
       <c r="Q25">
-        <v>948</v>
+        <v>943</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -2040,13 +2040,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.4108910891089109</v>
+        <v>0.4312796208530806</v>
       </c>
       <c r="C26">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="D26">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -2058,19 +2058,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="K26">
-        <v>0.1623931623931624</v>
+        <v>0.1709401709401709</v>
       </c>
       <c r="L26">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M26">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -2082,7 +2082,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2090,13 +2090,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.4098360655737705</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="C27">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D27">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2108,31 +2108,31 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="K27">
-        <v>0.16</v>
+        <v>0.1201117318435754</v>
       </c>
       <c r="L27">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="M27">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="N27">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O27">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q27">
-        <v>105</v>
+        <v>315</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2140,13 +2140,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.4028436018957346</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="C28">
-        <v>85</v>
+        <v>16</v>
       </c>
       <c r="D28">
-        <v>85</v>
+        <v>16</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2158,19 +2158,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>126</v>
+        <v>22</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="K28">
-        <v>0.1428571428571428</v>
+        <v>0.09740259740259741</v>
       </c>
       <c r="L28">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="M28">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2182,7 +2182,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>108</v>
+        <v>139</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2190,49 +2190,49 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.3898305084745763</v>
+        <v>0.4207920792079208</v>
       </c>
       <c r="C29">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="D29">
-        <v>24</v>
+        <v>85</v>
       </c>
       <c r="E29">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="G29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29">
-        <v>36</v>
+        <v>117</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="K29">
-        <v>0.1225626740947075</v>
+        <v>0.08913467794404685</v>
       </c>
       <c r="L29">
-        <v>44</v>
+        <v>137</v>
       </c>
       <c r="M29">
-        <v>44</v>
+        <v>141</v>
       </c>
       <c r="N29">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O29">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q29">
-        <v>315</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2240,13 +2240,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.3880597014925373</v>
+        <v>0.4074074074074074</v>
       </c>
       <c r="C30">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D30">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2258,31 +2258,31 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="K30">
-        <v>0.1103896103896104</v>
+        <v>0.07506702412868632</v>
       </c>
       <c r="L30">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="M30">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="N30">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O30">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q30">
-        <v>137</v>
+        <v>345</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2290,13 +2290,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.3818181818181818</v>
+        <v>0.3958333333333333</v>
       </c>
       <c r="C31">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D31">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2308,31 +2308,31 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="K31">
-        <v>0.09687906371911574</v>
+        <v>0.07430340557275542</v>
       </c>
       <c r="L31">
-        <v>149</v>
+        <v>24</v>
       </c>
       <c r="M31">
-        <v>152</v>
+        <v>25</v>
       </c>
       <c r="N31">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="O31">
-        <v>0.02000000000000002</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P31" t="b">
         <v>1</v>
       </c>
       <c r="Q31">
-        <v>1389</v>
+        <v>299</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2340,13 +2340,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.3809523809523809</v>
+        <v>0.3818181818181818</v>
       </c>
       <c r="C32">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D32">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2358,31 +2358,31 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="K32">
-        <v>0.0859375</v>
+        <v>0.07003891050583658</v>
       </c>
       <c r="L32">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="M32">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="N32">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O32">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q32">
-        <v>234</v>
+        <v>239</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2390,13 +2390,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.375</v>
+        <v>0.3703703703703703</v>
       </c>
       <c r="C33">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D33">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2408,31 +2408,31 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="K33">
-        <v>0.08042895442359249</v>
+        <v>0.06129032258064516</v>
       </c>
       <c r="L33">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="M33">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="N33">
-        <v>0.97</v>
+        <v>0.83</v>
       </c>
       <c r="O33">
-        <v>0.03000000000000003</v>
+        <v>0.17</v>
       </c>
       <c r="P33" t="b">
         <v>1</v>
       </c>
       <c r="Q33">
-        <v>343</v>
+        <v>291</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2440,13 +2440,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.3623188405797101</v>
+        <v>0.3673469387755102</v>
       </c>
       <c r="C34">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D34">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2458,31 +2458,31 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="K34">
-        <v>0.07462686567164178</v>
+        <v>0.04557640750670242</v>
       </c>
       <c r="L34">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="M34">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="N34">
-        <v>0.79</v>
+        <v>0.85</v>
       </c>
       <c r="O34">
-        <v>0.21</v>
+        <v>0.15</v>
       </c>
       <c r="P34" t="b">
         <v>1</v>
       </c>
       <c r="Q34">
-        <v>186</v>
+        <v>712</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2490,7 +2490,7 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.3492063492063492</v>
+        <v>0.3666666666666666</v>
       </c>
       <c r="C35">
         <v>22</v>
@@ -2508,31 +2508,31 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="K35">
-        <v>0.07453416149068323</v>
+        <v>0.03981264637002342</v>
       </c>
       <c r="L35">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="M35">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="N35">
-        <v>0.92</v>
+        <v>0.74</v>
       </c>
       <c r="O35">
-        <v>0.07999999999999996</v>
+        <v>0.26</v>
       </c>
       <c r="P35" t="b">
         <v>1</v>
       </c>
       <c r="Q35">
-        <v>298</v>
+        <v>410</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2540,13 +2540,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.3488372093023256</v>
+        <v>0.360655737704918</v>
       </c>
       <c r="C36">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D36">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2558,31 +2558,31 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="K36">
-        <v>0.05510752688172043</v>
+        <v>0.03636363636363636</v>
       </c>
       <c r="L36">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="M36">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="N36">
-        <v>0.84</v>
+        <v>0.78</v>
       </c>
       <c r="O36">
-        <v>0.16</v>
+        <v>0.22</v>
       </c>
       <c r="P36" t="b">
         <v>1</v>
       </c>
       <c r="Q36">
-        <v>703</v>
+        <v>477</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2590,13 +2590,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.3469387755102041</v>
+        <v>0.3582089552238806</v>
       </c>
       <c r="C37">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D37">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2608,31 +2608,31 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="K37">
-        <v>0.05501618122977346</v>
+        <v>0.03597122302158273</v>
       </c>
       <c r="L37">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="M37">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="N37">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="O37">
-        <v>0.23</v>
+        <v>0.29</v>
       </c>
       <c r="P37" t="b">
         <v>1</v>
       </c>
       <c r="Q37">
-        <v>292</v>
+        <v>670</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2640,13 +2640,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.3370786516853932</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="C38">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D38">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2658,31 +2658,31 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="K38">
-        <v>0.05263157894736842</v>
+        <v>0.03237410071942446</v>
       </c>
       <c r="L38">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M38">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="N38">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="O38">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="P38" t="b">
         <v>1</v>
       </c>
       <c r="Q38">
-        <v>270</v>
+        <v>538</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2690,13 +2690,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.3333333333333333</v>
+        <v>0.3492063492063492</v>
       </c>
       <c r="C39">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D39">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2708,31 +2708,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>36</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="K39">
-        <v>0.04964539007092199</v>
-      </c>
-      <c r="L39">
-        <v>21</v>
-      </c>
-      <c r="M39">
-        <v>31</v>
-      </c>
-      <c r="N39">
-        <v>0.68</v>
-      </c>
-      <c r="O39">
-        <v>0.32</v>
-      </c>
-      <c r="P39" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q39">
-        <v>402</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2740,13 +2716,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.3275862068965517</v>
+        <v>0.3488372093023256</v>
       </c>
       <c r="C40">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D40">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2758,31 +2734,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>39</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="K40">
-        <v>0.035650623885918</v>
-      </c>
-      <c r="L40">
-        <v>20</v>
-      </c>
-      <c r="M40">
-        <v>24</v>
-      </c>
-      <c r="N40">
-        <v>0.83</v>
-      </c>
-      <c r="O40">
-        <v>0.17</v>
-      </c>
-      <c r="P40" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q40">
-        <v>541</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2790,13 +2742,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.3265306122448979</v>
+        <v>0.34375</v>
       </c>
       <c r="C41">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D41">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2808,31 +2760,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>66</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="K41">
-        <v>0.03314121037463977</v>
-      </c>
-      <c r="L41">
-        <v>23</v>
-      </c>
-      <c r="M41">
-        <v>34</v>
-      </c>
-      <c r="N41">
-        <v>0.68</v>
-      </c>
-      <c r="O41">
-        <v>0.32</v>
-      </c>
-      <c r="P41" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q41">
-        <v>671</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2840,13 +2768,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.3186813186813187</v>
+        <v>0.3370786516853932</v>
       </c>
       <c r="C42">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D42">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2858,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2866,13 +2794,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.3092783505154639</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C43">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="D43">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2884,7 +2812,7 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>134</v>
+        <v>46</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -2892,13 +2820,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.3035714285714285</v>
+        <v>0.3247863247863248</v>
       </c>
       <c r="C44">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="D44">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2910,7 +2838,7 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>39</v>
+        <v>79</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -2918,13 +2846,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.2905982905982906</v>
+        <v>0.3247422680412371</v>
       </c>
       <c r="C45">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="D45">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2936,7 +2864,7 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>83</v>
+        <v>131</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -2944,13 +2872,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.2879746835443038</v>
+        <v>0.3132911392405063</v>
       </c>
       <c r="C46">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="D46">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2962,7 +2890,7 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>225</v>
+        <v>217</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -2970,13 +2898,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.2753623188405797</v>
+        <v>0.3037974683544304</v>
       </c>
       <c r="C47">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="D47">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2988,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>200</v>
+        <v>220</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -2996,13 +2924,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.2626582278481013</v>
+        <v>0.3035714285714285</v>
       </c>
       <c r="C48">
-        <v>83</v>
+        <v>17</v>
       </c>
       <c r="D48">
-        <v>83</v>
+        <v>17</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -3014,7 +2942,7 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>233</v>
+        <v>39</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3022,13 +2950,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.2514285714285714</v>
+        <v>0.3</v>
       </c>
       <c r="C49">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="D49">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -3040,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>131</v>
+        <v>140</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3048,13 +2976,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.2507418397626113</v>
+        <v>0.2989690721649484</v>
       </c>
       <c r="C50">
-        <v>169</v>
+        <v>29</v>
       </c>
       <c r="D50">
-        <v>169</v>
+        <v>29</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -3066,7 +2994,7 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>505</v>
+        <v>68</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3074,13 +3002,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.25</v>
+        <v>0.2959183673469388</v>
       </c>
       <c r="C51">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D51">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -3092,7 +3020,7 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>45</v>
+        <v>69</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3100,13 +3028,13 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.2476635514018692</v>
+        <v>0.2934782608695652</v>
       </c>
       <c r="C52">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="D52">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -3118,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>161</v>
+        <v>195</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3126,13 +3054,13 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.2463768115942029</v>
+        <v>0.2804154302670623</v>
       </c>
       <c r="C53">
-        <v>17</v>
+        <v>189</v>
       </c>
       <c r="D53">
-        <v>17</v>
+        <v>189</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -3144,7 +3072,7 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>52</v>
+        <v>485</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3152,25 +3080,25 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.2440944881889764</v>
+        <v>0.2678571428571428</v>
       </c>
       <c r="C54">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="D54">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="E54">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F54">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H54">
-        <v>96</v>
+        <v>41</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3178,13 +3106,13 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.2407407407407407</v>
+        <v>0.2637362637362637</v>
       </c>
       <c r="C55">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D55">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -3196,7 +3124,7 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>82</v>
+        <v>67</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3204,13 +3132,13 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.2371134020618557</v>
+        <v>0.2608695652173913</v>
       </c>
       <c r="C56">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D56">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -3222,7 +3150,7 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>74</v>
+        <v>51</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3230,25 +3158,25 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.2328767123287671</v>
+        <v>0.2514285714285714</v>
       </c>
       <c r="C57">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="D57">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="E57">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="F57">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="G57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H57">
-        <v>56</v>
+        <v>131</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3256,13 +3184,13 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.2317073170731707</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="C58">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D58">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -3274,7 +3202,7 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3282,13 +3210,13 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.2285714285714286</v>
+        <v>0.2297297297297297</v>
       </c>
       <c r="C59">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D59">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -3300,7 +3228,7 @@
         <v>0</v>
       </c>
       <c r="H59">
-        <v>108</v>
+        <v>57</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3308,13 +3236,13 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2268041237113402</v>
+        <v>0.2297297297297297</v>
       </c>
       <c r="C60">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D60">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -3326,7 +3254,7 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <v>75</v>
+        <v>57</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3334,25 +3262,25 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.2163355408388521</v>
+        <v>0.2265625</v>
       </c>
       <c r="C61">
-        <v>98</v>
+        <v>29</v>
       </c>
       <c r="D61">
+        <v>29</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61" t="b">
+        <v>0</v>
+      </c>
+      <c r="H61">
         <v>99</v>
-      </c>
-      <c r="E61">
-        <v>0.01</v>
-      </c>
-      <c r="F61">
-        <v>0.99</v>
-      </c>
-      <c r="G61" t="b">
-        <v>1</v>
-      </c>
-      <c r="H61">
-        <v>355</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3360,13 +3288,13 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.2162162162162162</v>
+        <v>0.2164948453608248</v>
       </c>
       <c r="C62">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D62">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -3378,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="H62">
-        <v>58</v>
+        <v>76</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3386,13 +3314,13 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.2155172413793103</v>
+        <v>0.2162162162162162</v>
       </c>
       <c r="C63">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="D63">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -3404,7 +3332,7 @@
         <v>0</v>
       </c>
       <c r="H63">
-        <v>273</v>
+        <v>58</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3412,13 +3340,13 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.2142857142857143</v>
+        <v>0.2114537444933921</v>
       </c>
       <c r="C64">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="D64">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -3430,7 +3358,7 @@
         <v>0</v>
       </c>
       <c r="H64">
-        <v>55</v>
+        <v>358</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3438,13 +3366,13 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.2131147540983606</v>
+        <v>0.2033898305084746</v>
       </c>
       <c r="C65">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="D65">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -3456,7 +3384,7 @@
         <v>0</v>
       </c>
       <c r="H65">
-        <v>144</v>
+        <v>94</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3464,13 +3392,13 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.2051282051282051</v>
+        <v>0.2021857923497268</v>
       </c>
       <c r="C66">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="D66">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -3482,7 +3410,7 @@
         <v>0</v>
       </c>
       <c r="H66">
-        <v>62</v>
+        <v>146</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3490,13 +3418,13 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.2</v>
+        <v>0.2018348623853211</v>
       </c>
       <c r="C67">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="D67">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -3508,7 +3436,7 @@
         <v>0</v>
       </c>
       <c r="H67">
-        <v>160</v>
+        <v>87</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3516,25 +3444,25 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.1978021978021978</v>
+        <v>0.1974522292993631</v>
       </c>
       <c r="C68">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="D68">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="E68">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F68">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H68">
-        <v>292</v>
+        <v>126</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3542,25 +3470,25 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.1974522292993631</v>
+        <v>0.1959654178674352</v>
       </c>
       <c r="C69">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="D69">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="E69">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F69">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H69">
-        <v>126</v>
+        <v>279</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3568,13 +3496,13 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.1884816753926702</v>
+        <v>0.1846153846153846</v>
       </c>
       <c r="C70">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D70">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -3586,7 +3514,7 @@
         <v>0</v>
       </c>
       <c r="H70">
-        <v>155</v>
+        <v>106</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3594,13 +3522,13 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.1864406779661017</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="C71">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D71">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -3612,7 +3540,7 @@
         <v>0</v>
       </c>
       <c r="H71">
-        <v>96</v>
+        <v>126</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3620,25 +3548,25 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1769230769230769</v>
+        <v>0.1811320754716981</v>
       </c>
       <c r="C72">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="D72">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="E72">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F72">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H72">
-        <v>107</v>
+        <v>217</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3646,13 +3574,13 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.1722846441947566</v>
+        <v>0.1785714285714286</v>
       </c>
       <c r="C73">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="D73">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -3664,7 +3592,7 @@
         <v>0</v>
       </c>
       <c r="H73">
-        <v>221</v>
+        <v>115</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3672,13 +3600,13 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1614583333333333</v>
+        <v>0.1759259259259259</v>
       </c>
       <c r="C74">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D74">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -3690,7 +3618,7 @@
         <v>0</v>
       </c>
       <c r="H74">
-        <v>161</v>
+        <v>89</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3698,13 +3626,13 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.1558441558441558</v>
+        <v>0.162303664921466</v>
       </c>
       <c r="C75">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D75">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -3716,7 +3644,7 @@
         <v>0</v>
       </c>
       <c r="H75">
-        <v>130</v>
+        <v>160</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3724,25 +3652,25 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1538461538461539</v>
+        <v>0.1614583333333333</v>
       </c>
       <c r="C76">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D76">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E76">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="F76">
-        <v>0.9299999999999999</v>
+        <v>1</v>
       </c>
       <c r="G76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H76">
-        <v>143</v>
+        <v>161</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3750,13 +3678,13 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1526717557251908</v>
+        <v>0.1603053435114504</v>
       </c>
       <c r="C77">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D77">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -3768,7 +3696,7 @@
         <v>0</v>
       </c>
       <c r="H77">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3776,25 +3704,25 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.1497975708502024</v>
+        <v>0.15625</v>
       </c>
       <c r="C78">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="D78">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="E78">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="F78">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="G78" t="b">
         <v>1</v>
       </c>
       <c r="H78">
-        <v>210</v>
+        <v>378</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3802,25 +3730,25 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.1485148514851485</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="C79">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D79">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E79">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F79">
-        <v>0.9399999999999999</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G79" t="b">
         <v>1</v>
       </c>
       <c r="H79">
-        <v>86</v>
+        <v>143</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3828,25 +3756,25 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.1464788732394366</v>
+        <v>0.1528662420382166</v>
       </c>
       <c r="C80">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="D80">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="E80">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F80">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H80">
-        <v>303</v>
+        <v>133</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3854,25 +3782,25 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1344086021505376</v>
+        <v>0.1479452054794521</v>
       </c>
       <c r="C81">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="D81">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="E81">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="F81">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="G81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H81">
-        <v>161</v>
+        <v>311</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3880,25 +3808,25 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>0.1344086021505376</v>
+        <v>0.1468926553672316</v>
       </c>
       <c r="C82">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="D82">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F82">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H82">
-        <v>161</v>
+        <v>302</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3906,25 +3834,25 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0.1254480286738351</v>
+        <v>0.1451612903225807</v>
       </c>
       <c r="C83">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D83">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E83">
-        <v>0.03</v>
+        <v>0.1</v>
       </c>
       <c r="F83">
-        <v>0.97</v>
+        <v>0.9</v>
       </c>
       <c r="G83" t="b">
         <v>1</v>
       </c>
       <c r="H83">
-        <v>244</v>
+        <v>159</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3932,13 +3860,13 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>0.1216216216216216</v>
+        <v>0.1401869158878505</v>
       </c>
       <c r="C84">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D84">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -3950,7 +3878,7 @@
         <v>0</v>
       </c>
       <c r="H84">
-        <v>130</v>
+        <v>184</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3958,25 +3886,25 @@
         <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1180124223602484</v>
+        <v>0.1341463414634146</v>
       </c>
       <c r="C85">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="D85">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="E85">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="F85">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H85">
-        <v>142</v>
+        <v>213</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3984,25 +3912,25 @@
         <v>91</v>
       </c>
       <c r="B86">
-        <v>0.1178343949044586</v>
+        <v>0.1209677419354839</v>
       </c>
       <c r="C86">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="D86">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="E86">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="F86">
-        <v>0.9299999999999999</v>
+        <v>1</v>
       </c>
       <c r="G86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H86">
-        <v>277</v>
+        <v>109</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4010,25 +3938,25 @@
         <v>92</v>
       </c>
       <c r="B87">
-        <v>0.1053811659192825</v>
+        <v>0.12</v>
       </c>
       <c r="C87">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="D87">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="E87">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="F87">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="G87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H87">
-        <v>399</v>
+        <v>154</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4036,25 +3964,25 @@
         <v>93</v>
       </c>
       <c r="B88">
-        <v>0.1046511627906977</v>
+        <v>0.1180124223602484</v>
       </c>
       <c r="C88">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D88">
         <v>19</v>
       </c>
       <c r="E88">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F88">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H88">
-        <v>154</v>
+        <v>142</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4062,25 +3990,25 @@
         <v>94</v>
       </c>
       <c r="B89">
-        <v>0.1036269430051813</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="C89">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D89">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E89">
-        <v>0.13</v>
+        <v>0.06</v>
       </c>
       <c r="F89">
-        <v>0.87</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G89" t="b">
         <v>1</v>
       </c>
       <c r="H89">
-        <v>173</v>
+        <v>120</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4088,25 +4016,25 @@
         <v>95</v>
       </c>
       <c r="B90">
-        <v>0.1028571428571429</v>
+        <v>0.1146953405017921</v>
       </c>
       <c r="C90">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="D90">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="E90">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F90">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H90">
-        <v>157</v>
+        <v>247</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4114,25 +4042,25 @@
         <v>96</v>
       </c>
       <c r="B91">
-        <v>0.09405940594059406</v>
+        <v>0.1142857142857143</v>
       </c>
       <c r="C91">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="D91">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="E91">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="F91">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="G91" t="b">
         <v>1</v>
       </c>
       <c r="H91">
-        <v>549</v>
+        <v>279</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4140,25 +4068,25 @@
         <v>97</v>
       </c>
       <c r="B92">
-        <v>0.09345794392523364</v>
+        <v>0.1125827814569536</v>
       </c>
       <c r="C92">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="D92">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="E92">
-        <v>0.13</v>
+        <v>0.06</v>
       </c>
       <c r="F92">
-        <v>0.87</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G92" t="b">
         <v>1</v>
       </c>
       <c r="H92">
-        <v>388</v>
+        <v>536</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4166,25 +4094,25 @@
         <v>98</v>
       </c>
       <c r="B93">
-        <v>0.09219858156028368</v>
+        <v>0.1119402985074627</v>
       </c>
       <c r="C93">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="D93">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="E93">
-        <v>0.13</v>
+        <v>0.06</v>
       </c>
       <c r="F93">
-        <v>0.87</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G93" t="b">
         <v>1</v>
       </c>
       <c r="H93">
-        <v>384</v>
+        <v>119</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4192,13 +4120,13 @@
         <v>99</v>
       </c>
       <c r="B94">
-        <v>0.08755760368663594</v>
+        <v>0.1046511627906977</v>
       </c>
       <c r="C94">
+        <v>18</v>
+      </c>
+      <c r="D94">
         <v>19</v>
-      </c>
-      <c r="D94">
-        <v>20</v>
       </c>
       <c r="E94">
         <v>0.05</v>
@@ -4210,7 +4138,7 @@
         <v>1</v>
       </c>
       <c r="H94">
-        <v>198</v>
+        <v>154</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4218,25 +4146,25 @@
         <v>100</v>
       </c>
       <c r="B95">
-        <v>0.08035714285714286</v>
+        <v>0.1046511627906977</v>
       </c>
       <c r="C95">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="D95">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="E95">
-        <v>0.14</v>
+        <v>0.08</v>
       </c>
       <c r="F95">
-        <v>0.86</v>
+        <v>0.92</v>
       </c>
       <c r="G95" t="b">
         <v>1</v>
       </c>
       <c r="H95">
-        <v>721</v>
+        <v>385</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4244,25 +4172,25 @@
         <v>101</v>
       </c>
       <c r="B96">
-        <v>0.08021390374331551</v>
+        <v>0.09859154929577464</v>
       </c>
       <c r="C96">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D96">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E96">
-        <v>0.17</v>
+        <v>0.19</v>
       </c>
       <c r="F96">
-        <v>0.83</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="G96" t="b">
         <v>1</v>
       </c>
       <c r="H96">
-        <v>172</v>
+        <v>192</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4270,25 +4198,25 @@
         <v>102</v>
       </c>
       <c r="B97">
-        <v>0.07023411371237458</v>
+        <v>0.09326424870466321</v>
       </c>
       <c r="C97">
+        <v>18</v>
+      </c>
+      <c r="D97">
         <v>21</v>
       </c>
-      <c r="D97">
-        <v>23</v>
-      </c>
       <c r="E97">
-        <v>0.09</v>
+        <v>0.14</v>
       </c>
       <c r="F97">
-        <v>0.91</v>
+        <v>0.86</v>
       </c>
       <c r="G97" t="b">
         <v>1</v>
       </c>
       <c r="H97">
-        <v>278</v>
+        <v>175</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4296,25 +4224,25 @@
         <v>103</v>
       </c>
       <c r="B98">
-        <v>0.06748466257668712</v>
+        <v>0.09239130434782608</v>
       </c>
       <c r="C98">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="D98">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="E98">
-        <v>0.06</v>
+        <v>0.11</v>
       </c>
       <c r="F98">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="G98" t="b">
         <v>1</v>
       </c>
       <c r="H98">
-        <v>608</v>
+        <v>167</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4322,25 +4250,25 @@
         <v>104</v>
       </c>
       <c r="B99">
-        <v>0.0639269406392694</v>
+        <v>0.09056122448979592</v>
       </c>
       <c r="C99">
-        <v>28</v>
+        <v>71</v>
       </c>
       <c r="D99">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="E99">
-        <v>0.24</v>
+        <v>0.12</v>
       </c>
       <c r="F99">
-        <v>0.76</v>
+        <v>0.88</v>
       </c>
       <c r="G99" t="b">
         <v>1</v>
       </c>
       <c r="H99">
-        <v>410</v>
+        <v>713</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4348,25 +4276,25 @@
         <v>105</v>
       </c>
       <c r="B100">
-        <v>0.05988023952095808</v>
+        <v>0.08235294117647059</v>
       </c>
       <c r="C100">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D100">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E100">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="F100">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="G100" t="b">
         <v>1</v>
       </c>
       <c r="H100">
-        <v>471</v>
+        <v>390</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -4374,25 +4302,25 @@
         <v>106</v>
       </c>
       <c r="B101">
-        <v>0.05818965517241379</v>
+        <v>0.08191653786707882</v>
       </c>
       <c r="C101">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="D101">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="E101">
-        <v>0.16</v>
+        <v>0.13</v>
       </c>
       <c r="F101">
-        <v>0.84</v>
+        <v>0.87</v>
       </c>
       <c r="G101" t="b">
         <v>1</v>
       </c>
       <c r="H101">
-        <v>437</v>
+        <v>594</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -4400,25 +4328,25 @@
         <v>107</v>
       </c>
       <c r="B102">
-        <v>0.04871060171919771</v>
+        <v>0.07122507122507123</v>
       </c>
       <c r="C102">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D102">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E102">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="F102">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="G102" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H102">
-        <v>332</v>
+        <v>326</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -4426,25 +4354,103 @@
         <v>108</v>
       </c>
       <c r="B103">
-        <v>0.03065693430656934</v>
+        <v>0.06976744186046512</v>
       </c>
       <c r="C103">
         <v>21</v>
       </c>
       <c r="D103">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E103">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F103">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G103" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H103">
-        <v>664</v>
+        <v>280</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B104">
+        <v>0.0576036866359447</v>
+      </c>
+      <c r="C104">
+        <v>25</v>
+      </c>
+      <c r="D104">
+        <v>38</v>
+      </c>
+      <c r="E104">
+        <v>0.34</v>
+      </c>
+      <c r="F104">
+        <v>0.6599999999999999</v>
+      </c>
+      <c r="G104" t="b">
+        <v>1</v>
+      </c>
+      <c r="H104">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B105">
+        <v>0.05172413793103448</v>
+      </c>
+      <c r="C105">
+        <v>24</v>
+      </c>
+      <c r="D105">
+        <v>29</v>
+      </c>
+      <c r="E105">
+        <v>0.17</v>
+      </c>
+      <c r="F105">
+        <v>0.83</v>
+      </c>
+      <c r="G105" t="b">
+        <v>1</v>
+      </c>
+      <c r="H105">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B106">
+        <v>0.04216867469879518</v>
+      </c>
+      <c r="C106">
+        <v>21</v>
+      </c>
+      <c r="D106">
+        <v>27</v>
+      </c>
+      <c r="E106">
+        <v>0.22</v>
+      </c>
+      <c r="F106">
+        <v>0.78</v>
+      </c>
+      <c r="G106" t="b">
+        <v>1</v>
+      </c>
+      <c r="H106">
+        <v>477</v>
       </c>
     </row>
   </sheetData>
